--- a/medicine/Enfance/Mérel/Mérel.xlsx
+++ b/medicine/Enfance/Mérel/Mérel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9rel</t>
+          <t>Mérel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mérel, nom de plume de Michel Schickler, né le 1er mai 1952 à Mulhouse, est un illustrateur français pour l'édition jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9rel</t>
+          <t>Mérel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mérel fait ses études aux Beaux-Arts de Mulhouse puis à l'École supérieure des arts décoratifs de Strasbourg[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mérel fait ses études aux Beaux-Arts de Mulhouse puis à l'École supérieure des arts décoratifs de Strasbourg.
 Depuis 1979, il travaille comme illustrateur indépendant et collabore régulièrement avec la presse nationale et étrangère.
-Il a illustré à ce jour plus de 150 livres destinés à la jeunesse[2].
+Il a illustré à ce jour plus de 150 livres destinés à la jeunesse.
 Dans ce domaine, ses personnages les plus célèbres sont Arsène Lapin, Petit Féroce et Gafi le fantôme.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9rel</t>
+          <t>Mérel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 2005 - Un sacré charivari, Nathan
@@ -592,7 +608,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9rel</t>
+          <t>Mérel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -610,7 +626,9 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Illustration
@@ -648,7 +666,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M%C3%A9rel</t>
+          <t>Mérel</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -666,7 +684,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Notices d'autorité : VIAF ISNI BnF (données) IdRef LCCN Espagne Belgique Pologne Israël NUKAT Corée du Sud WorldCat 
 Prix des incorruptibles (1991)
